--- a/技术.xlsx
+++ b/技术.xlsx
@@ -631,16 +631,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -653,14 +669,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,23 +699,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,17 +722,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,14 +743,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -749,14 +757,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -773,61 +773,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,121 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,6 +983,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -993,15 +1017,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +1032,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,39 +1071,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1087,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,16 +1099,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,116 +1120,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,9 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1270,9 +1267,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,10 +1632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1696,7 +1690,7 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1710,7 +1704,7 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" ht="27" spans="1:4">
       <c r="A6" s="6" t="s">
@@ -1722,39 +1716,44 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1781,47 +1780,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="127.25" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="18.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="127.25" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="18"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1848,40 +1847,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="41.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19" style="9" customWidth="1"/>
-    <col min="3" max="3" width="89.375" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="41.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" customWidth="1"/>
+    <col min="3" max="3" width="89.375" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1943,36 +1942,36 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>55</v>
       </c>
     </row>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -581,10 +581,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -631,14 +631,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,6 +683,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -660,16 +706,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,9 +720,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,51 +750,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,19 +773,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,157 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,6 +982,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -993,15 +1017,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,21 +1036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1048,8 +1048,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,16 +1099,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,112 +1120,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1632,7 +1632,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -1749,11 +1749,6 @@
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>名称</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>git checkout -b dev</t>
+  </si>
+  <si>
+    <t>创建并切换到dev分支</t>
   </si>
   <si>
     <t>git branch aaa</t>
@@ -630,10 +633,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,17 +650,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,7 +693,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,6 +709,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,67 +755,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,13 +776,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,169 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,78 +981,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,6 +1010,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1087,10 +1090,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1099,16 +1102,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,112 +1123,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1634,7 +1637,7 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1989,8 +1992,8 @@
   <sheetPr/>
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:B59"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2260,247 +2263,246 @@
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="2" t="e">
-        <f>-b创建并切换到dev分支</f>
-        <v>#NAME?</v>
+      <c r="B33" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" ht="27" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="15525" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -432,13 +432,13 @@
     <t>删除dev分支</t>
   </si>
   <si>
-    <t>git --graph</t>
+    <t>git log --graph</t>
   </si>
   <si>
     <t>查看分支合并图形</t>
   </si>
   <si>
-    <t>git --graph --pretty=oneline --abbrev=commit</t>
+    <t>git log --graph --pretty=oneline --abbrev=commit</t>
   </si>
   <si>
     <t>查看分支合并图形, 每条提交显示一行,仅显示前五位数的commitID</t>
@@ -585,9 +585,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -633,16 +633,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,6 +655,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -663,17 +677,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -685,15 +693,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -701,6 +703,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,37 +740,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -753,9 +747,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,187 +776,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,6 +981,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,35 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,23 +1077,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,30 +1090,30 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,112 +1123,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1992,8 +1992,8 @@
   <sheetPr/>
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15525" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
   <si>
     <t>名称</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>white-space</t>
+  </si>
+  <si>
+    <t>display: table;&gt; display: table-cell;vertical-align: middle;height:300px;&gt;被居中元素</t>
+  </si>
+  <si>
+    <t>实现垂直居中</t>
+  </si>
+  <si>
+    <t>绝对定位top50%;margin-50%|translateY-50%</t>
+  </si>
+  <si>
+    <t>display: flex;align-items: center;&gt;被居中元素</t>
+  </si>
+  <si>
+    <t>position: relative;&gt;绝对定位贴四边,margin:auto;height;(被居中元素)</t>
+  </si>
+  <si>
+    <t>height=line-height仅限单行文本</t>
   </si>
   <si>
     <t>download</t>
@@ -584,9 +602,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -641,6 +659,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -649,22 +674,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,7 +697,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,52 +772,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -776,37 +794,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,145 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,15 +999,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,17 +1042,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1055,6 +1053,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,149 +1108,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,19 +1288,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1693,7 +1708,7 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1707,7 +1722,7 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" ht="27" spans="1:4">
       <c r="A6" s="6" t="s">
@@ -1719,7 +1734,7 @@
       <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
@@ -1770,28 +1785,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="43.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="37.875" style="12" customWidth="1"/>
     <col min="3" max="3" width="127.25" style="12" customWidth="1"/>
     <col min="4" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1811,14 +1826,59 @@
         <v>33</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1864,22 +1924,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1911,66 +1971,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:3">
@@ -1992,7 +2052,7 @@
   <sheetPr/>
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -2005,504 +2065,504 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" ht="27" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
   <si>
     <t>名称</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>模拟api端</t>
+  </si>
+  <si>
+    <t>awwapp</t>
+  </si>
+  <si>
+    <t>免费云端在线涂鸦画板</t>
+  </si>
+  <si>
+    <t>提供白板, 可以在其中展示视频、文件、图片等</t>
+  </si>
+  <si>
+    <t>realtimeboard</t>
+  </si>
+  <si>
+    <t>可视化协同工作白板</t>
   </si>
   <si>
     <t>属性名</t>
@@ -659,13 +674,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -675,13 +683,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +698,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,9 +720,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,6 +745,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,29 +773,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,13 +809,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,67 +971,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,104 +993,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -991,6 +1006,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1042,17 +1070,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,17 +1086,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,6 +1113,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1108,149 +1136,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,7 +1327,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,9 +1681,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1767,6 +1798,28 @@
       </c>
       <c r="C9" s="6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1787,8 +1840,8 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1801,83 +1854,83 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="11"/>
     </row>
     <row r="5" ht="40.5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1924,22 +1977,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1971,66 +2024,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:3">
@@ -2065,504 +2118,504 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" ht="27" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>名称</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>可视化协同工作白板</t>
+  </si>
+  <si>
+    <t>flutter</t>
+  </si>
+  <si>
+    <t>移动端框架</t>
+  </si>
+  <si>
+    <t>支持热重载大大提高效率,丰富的装饰器库,让gpu加速导致性能与原生差不多,经典demo是Flutter Gallery,</t>
   </si>
   <si>
     <t>属性名</t>
@@ -617,10 +626,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -667,22 +676,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,9 +719,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,7 +751,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,8 +780,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,36 +790,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,14 +802,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -809,31 +818,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,151 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,21 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1070,26 +1064,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1108,8 +1082,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,6 +1128,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1136,10 +1145,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1148,133 +1157,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1681,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1801,25 +1810,36 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:3">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1854,83 +1874,83 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="11"/>
     </row>
     <row r="5" ht="40.5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:2">
       <c r="A8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1977,22 +1997,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2024,66 +2044,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:3">
@@ -2118,504 +2138,504 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" ht="27" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="html" sheetId="4" r:id="rId3"/>
     <sheet name="js" sheetId="5" r:id="rId4"/>
     <sheet name="git" sheetId="6" r:id="rId5"/>
+    <sheet name="ts" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
   <si>
     <t>名称</t>
   </si>
@@ -126,6 +127,15 @@
   </si>
   <si>
     <t>支持热重载大大提高效率,丰富的装饰器库,让gpu加速导致性能与原生差不多,经典demo是Flutter Gallery,</t>
+  </si>
+  <si>
+    <t>tsx</t>
+  </si>
+  <si>
+    <t>typescript语法</t>
+  </si>
+  <si>
+    <t>react中的jsx的ts语法</t>
   </si>
   <si>
     <t>属性名</t>
@@ -620,14 +630,230 @@
   <si>
     <t>查看远程仓库详细信息</t>
   </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>写法</t>
+  </si>
+  <si>
+    <t>作用</t>
+  </si>
+  <si>
+    <t>案例</t>
+  </si>
+  <si>
+    <t>联合类型</t>
+  </si>
+  <si>
+    <t>a:number | b: string</t>
+  </si>
+  <si>
+    <t>将变量限制为几个类型之一</t>
+  </si>
+  <si>
+    <t>(something: string | number)</t>
+  </si>
+  <si>
+    <t>定义对象</t>
+  </si>
+  <si>
+    <t>interface obj{}</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <t>定义具有固定属性名的对象</t>
+  </si>
+  <si>
+    <t>interface Person {
+    name: string;
+    age: number;
+}
+let tom: Person = {
+    name: 'Tom',
+    age: 25
+};</t>
+  </si>
+  <si>
+    <t>key?: value</t>
+  </si>
+  <si>
+    <t>可选属性名</t>
+  </si>
+  <si>
+    <t>该属性名可有有也可以没有</t>
+  </si>
+  <si>
+    <t>interface Person {
+    name: string;
+    age?: number;
+}</t>
+  </si>
+  <si>
+    <t>readonly key: value</t>
+  </si>
+  <si>
+    <t>只读属性名</t>
+  </si>
+  <si>
+    <t>该属性值不能被修改</t>
+  </si>
+  <si>
+    <t>interface Person {
+    readonly id: number;
+    name: string;
+    age?: number;
+    [propName: string]: any;
+}</t>
+  </si>
+  <si>
+    <t>定义数组</t>
+  </si>
+  <si>
+    <t>变量:项的类别[] = [a, b]</t>
+  </si>
+  <si>
+    <t>类别 + []</t>
+  </si>
+  <si>
+    <t>限制数组中项的类别</t>
+  </si>
+  <si>
+    <t>let fibonacci: number[] = [1, 1, 2, 3, 5];</t>
+  </si>
+  <si>
+    <t>变量:any[] = [a, b]</t>
+  </si>
+  <si>
+    <t>any + []</t>
+  </si>
+  <si>
+    <t>不限制数组中项的类别</t>
+  </si>
+  <si>
+    <t>let list: any[] = ['Xcat Liu', 25, { website: 'http://xcatliu.com' }];</t>
+  </si>
+  <si>
+    <t>定义函数</t>
+  </si>
+  <si>
+    <t>(x: number): number</t>
+  </si>
+  <si>
+    <t>(a:number): number</t>
+  </si>
+  <si>
+    <t>限制参数和返回值的类别和数量</t>
+  </si>
+  <si>
+    <t>function sum(x: number, y: number): number {
+    return x + y;
+}</t>
+  </si>
+  <si>
+    <t>输入=&gt;输出</t>
+  </si>
+  <si>
+    <t>箭头(不是箭头函数)</t>
+  </si>
+  <si>
+    <t>定义变量为函数, 限制输入和输出</t>
+  </si>
+  <si>
+    <t>let mySum: (x: number, y: number) =&gt; number = function (x: number, y: number): number {
+    return x + y;
+};</t>
+  </si>
+  <si>
+    <t>可选参数</t>
+  </si>
+  <si>
+    <t>可选参数必须写在必选参数的后面</t>
+  </si>
+  <si>
+    <t>function buildName(firstName: string, lastName?: string) {
+}</t>
+  </si>
+  <si>
+    <t>...arr:类别[]</t>
+  </si>
+  <si>
+    <t>定义剩余参数数组的各项的类别</t>
+  </si>
+  <si>
+    <t>function push(array: any[], ...items: any[]) {
+}</t>
+  </si>
+  <si>
+    <t>类型断言</t>
+  </si>
+  <si>
+    <t>&lt;联合类中的一个类型&gt;</t>
+  </si>
+  <si>
+    <t>如果联合类型中的string类的something存在, 则...</t>
+  </si>
+  <si>
+    <t>function getLength(something: string | number): number {
+    if ((&lt;string&gt;something).length) {
+        return (&lt;string&gt;something).length;
+    } else {
+        return something.toString().length;
+    }
+}</t>
+  </si>
+  <si>
+    <t>声明文件</t>
+  </si>
+  <si>
+    <t>declare var a: 类型</t>
+  </si>
+  <si>
+    <t>声明类型</t>
+  </si>
+  <si>
+    <t>定义外部引入的变量,编译结束后, declare会被删除</t>
+  </si>
+  <si>
+    <t>declare var jQuery: (string) =&gt; any;</t>
+  </si>
+  <si>
+    <t>.d.ts</t>
+  </si>
+  <si>
+    <t>包含所有声明类型的文件</t>
+  </si>
+  <si>
+    <t>@types</t>
+  </si>
+  <si>
+    <t>完成ts声明的库</t>
+  </si>
+  <si>
+    <t>npm install @types/jquery --save-dev</t>
+  </si>
+  <si>
+    <t>内置对象</t>
+  </si>
+  <si>
+    <t>ts写node</t>
+  </si>
+  <si>
+    <t>node不是ts的内置对象</t>
+  </si>
+  <si>
+    <t>npm install @types/node --save-dev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -676,24 +902,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -705,14 +923,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -728,7 +946,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,15 +961,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +975,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +990,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -789,17 +1022,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -818,7 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +1056,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,13 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,31 +1134,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,25 +1194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,42 +1218,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -975,30 +1225,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,8 +1268,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1060,6 +1288,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,32 +1344,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1128,15 +1363,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1145,10 +1371,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,16 +1383,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1181,115 +1407,139 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1337,9 +1587,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1690,156 +1937,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="35.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44" style="4" customWidth="1"/>
-    <col min="3" max="3" width="52.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="66.25" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="35.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="44" style="12" customWidth="1"/>
+    <col min="3" max="3" width="52.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="66.25" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" ht="27" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1866,91 +2124,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="127.25" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="43.5" style="20" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="127.25" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:3">
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
+      <c r="C1" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>40</v>
+      <c r="A2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="11"/>
+      <c r="A3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" ht="40.5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>44</v>
+      <c r="A5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>44</v>
+      <c r="A6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>44</v>
+      <c r="A7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>44</v>
+      <c r="A9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="12" t="s">
-        <v>44</v>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1978,41 +2236,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="41.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19" style="8" customWidth="1"/>
-    <col min="3" max="3" width="89.375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="41.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19" style="16" customWidth="1"/>
+    <col min="3" max="3" width="89.375" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>50</v>
+      <c r="A2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>52</v>
+      <c r="A3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2032,78 +2290,78 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="36.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
+      <c r="B1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>57</v>
+      <c r="A2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>60</v>
+      <c r="A3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>63</v>
+      <c r="A4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
+      <c r="A5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>69</v>
+      <c r="A6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:3">
@@ -2131,515 +2389,794 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="53.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="53.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="67.125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>71</v>
+      <c r="A1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:2">
+      <c r="A27" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>122</v>
+      <c r="B27" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
+      <c r="A28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>126</v>
+      <c r="A29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>128</v>
+      <c r="A30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>130</v>
+      <c r="A31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>132</v>
+      <c r="A32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>134</v>
+      <c r="A33" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>136</v>
+      <c r="A34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>138</v>
+      <c r="A35" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>140</v>
+      <c r="A36" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>142</v>
+      <c r="A37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>162</v>
+      <c r="B48" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>164</v>
+      <c r="A49" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>166</v>
+      <c r="A50" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>168</v>
+      <c r="A51" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>170</v>
+      <c r="A52" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>172</v>
+      <c r="A53" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>174</v>
+      <c r="A54" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>176</v>
+      <c r="A55" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>178</v>
+      <c r="A56" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>180</v>
+      <c r="A57" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>182</v>
+      <c r="A58" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="3"/>
+      <c r="A59" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" ht="27" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>185</v>
+      <c r="A60" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>187</v>
+      <c r="A61" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>189</v>
+      <c r="A62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>191</v>
+      <c r="A63" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="46.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" ht="81" spans="1:5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:5">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:5">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:5">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" ht="108" spans="1:5">
+      <c r="A12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
   <si>
     <t>名称</t>
   </si>
@@ -631,6 +631,12 @@
     <t>查看远程仓库详细信息</t>
   </si>
   <si>
+    <t xml:space="preserve">git push u origin aaa </t>
+  </si>
+  <si>
+    <t>本地创建分支aaa后, 在远程添加对应的分支aaa</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
@@ -852,10 +858,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -901,31 +907,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,7 +938,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -953,18 +946,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -975,41 +960,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1028,6 +983,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1044,7 +1050,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,13 +1206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,151 +1218,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,12 +1272,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1309,41 +1337,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1363,6 +1360,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1371,10 +1377,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1383,16 +1389,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1404,116 +1410,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,9 +1542,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1550,15 +1553,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1570,12 +1564,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1945,158 +1933,158 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="35.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="44" style="12" customWidth="1"/>
-    <col min="3" max="3" width="52.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="66.25" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="35.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="66.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" ht="27" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2124,90 +2112,90 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="37.875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="127.25" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="43.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="127.25" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" ht="40.5" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2236,40 +2224,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="41.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19" style="16" customWidth="1"/>
-    <col min="3" max="3" width="89.375" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="41.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19" style="12" customWidth="1"/>
+    <col min="3" max="3" width="89.375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2290,77 +2278,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="36.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="53.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="36.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2381,519 +2369,527 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="53.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="67.125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="53.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="67.125" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" ht="27" spans="1:2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2907,7 +2903,7 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2923,250 +2919,250 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>207</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:5">
       <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>211</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:5">
       <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>215</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>220</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:5">
       <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>224</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>229</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>233</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:5">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:5">
+      <c r="D10" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:5">
       <c r="A11" s="6"/>
-      <c r="B11" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>239</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="12" ht="108" spans="1:5">
-      <c r="A12" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>243</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>248</v>
       </c>
+      <c r="D13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6" t="s">
         <v>253</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>257</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
   <si>
     <t>名称</t>
   </si>
@@ -637,6 +637,24 @@
     <t>本地创建分支aaa后, 在远程添加对应的分支aaa</t>
   </si>
   <si>
+    <t>git rebase --continue</t>
+  </si>
+  <si>
+    <t>解决完冲突, add后不用commit,直接使用这个就可以把余下补丁合并掉</t>
+  </si>
+  <si>
+    <t>git rebase --abort</t>
+  </si>
+  <si>
+    <t>取消rebase,回到rebase之前的状态</t>
+  </si>
+  <si>
+    <t>git pull --rebase === git fetch + git rebase</t>
+  </si>
+  <si>
+    <t>git pull === git fetch + git merge</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
@@ -858,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -907,9 +925,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,83 +1030,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,20 +1052,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1050,7 +1068,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1122,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,19 +1170,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,139 +1248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,16 +1309,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1320,21 +1359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1346,17 +1370,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,10 +1395,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1389,16 +1407,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1410,112 +1428,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2369,10 +2387,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2890,6 +2908,32 @@
       </c>
       <c r="B65" s="8" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2919,220 +2963,220 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" ht="108" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3140,29 +3184,29 @@
     <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
   <si>
     <t>名称</t>
   </si>
@@ -655,6 +655,12 @@
     <t>git pull === git fetch + git merge</t>
   </si>
   <si>
+    <t xml:space="preserve">git revert </t>
+  </si>
+  <si>
+    <t>回滚</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
@@ -876,10 +882,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -933,16 +939,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,53 +1006,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,11 +1022,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,18 +1051,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1068,6 +1074,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1080,7 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,13 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,25 +1194,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,25 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,25 +1242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,55 +1254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,26 +1296,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1329,16 +1335,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1361,32 +1387,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1395,10 +1401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,16 +1413,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1428,112 +1434,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2387,10 +2393,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2934,6 +2940,14 @@
     <row r="71" spans="1:1">
       <c r="A71" s="8" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2963,220 +2977,220 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" ht="108" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3184,29 +3198,29 @@
     <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/技术.xlsx
+++ b/技术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="工具库" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274">
   <si>
     <t>名称</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>react中的jsx的ts语法</t>
+  </si>
+  <si>
+    <t>Autoprefixer</t>
+  </si>
+  <si>
+    <t>css后处理器</t>
+  </si>
+  <si>
+    <t>将组件类名哈希,私有化,避免团队开发,类名层叠现象</t>
+  </si>
+  <si>
+    <t>teamviewer</t>
+  </si>
+  <si>
+    <t>应用程序</t>
+  </si>
+  <si>
+    <t>远程团队合作,操作彼此端</t>
   </si>
   <si>
     <t>属性名</t>
@@ -882,10 +900,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -932,16 +950,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -954,7 +973,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,15 +1001,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -987,6 +1012,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1006,6 +1038,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1016,46 +1063,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1074,7 +1092,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,115 +1248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,55 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,26 +1314,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1331,17 +1349,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1370,26 +1377,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1401,10 +1419,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1413,133 +1431,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1949,10 +1967,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2110,6 +2128,28 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2144,83 +2184,83 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" ht="40.5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2267,22 +2307,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2314,66 +2354,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:3">
@@ -2395,8 +2435,8 @@
   <sheetPr/>
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2408,546 +2448,546 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="9" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="9" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:2">
       <c r="A36" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="9" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:2">
       <c r="A40" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B59" s="10"/>
     </row>
     <row r="60" ht="27" spans="1:2">
       <c r="A60" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="9" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="9" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="9" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2977,220 +3017,220 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:5">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:5">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" ht="54" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" ht="54" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" ht="108" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7"/>
       <c r="B14" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3198,29 +3238,29 @@
     <row r="15" spans="1:5">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
